--- a/Src/Data/Tables/ShopItemDefine.xlsx
+++ b/Src/Data/Tables/ShopItemDefine.xlsx
@@ -99,9 +99,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
@@ -130,8 +130,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -143,17 +157,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,38 +195,88 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -207,113 +288,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,10 +302,33 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -340,187 +340,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,11 +547,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,30 +593,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -606,6 +603,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,194 +636,188 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
@@ -849,11 +849,11 @@
   </cellXfs>
   <cellStyles count="61">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2 2 5 2 2 3 2 4 2 2 4 2" xfId="1"/>
-    <cellStyle name="差 2 2 2" xfId="2"/>
+    <cellStyle name="差 2 2 2" xfId="1"/>
+    <cellStyle name="常规 2 2 5 2 2 3 2 4 2 2 4 2" xfId="2"/>
     <cellStyle name="货币[0]" xfId="3" builtinId="7"/>
-    <cellStyle name="常规 5 4 2 3 2" xfId="4"/>
-    <cellStyle name="常规 2 2 4" xfId="5"/>
+    <cellStyle name="常规 2 2 4" xfId="4"/>
+    <cellStyle name="常规 5 4 2 3 2" xfId="5"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
     <cellStyle name="输入" xfId="7" builtinId="20"/>
     <cellStyle name="货币" xfId="8" builtinId="4"/>
@@ -1031,8 +1031,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:G17" totalsRowShown="0">
-  <autoFilter ref="A3:G17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:G13" totalsRowShown="0">
+  <autoFilter ref="A3:G13"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Key" dataDxfId="0"/>
     <tableColumn id="16" name="Key2" dataDxfId="1"/>
@@ -1336,7 +1336,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.2857142857143" defaultRowHeight="15" outlineLevelCol="6"/>

--- a/Src/Data/Tables/ShopItemDefine.xlsx
+++ b/Src/Data/Tables/ShopItemDefine.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>商店ID</t>
   </si>
@@ -92,6 +92,18 @@
   </si>
   <si>
     <t>技能书</t>
+  </si>
+  <si>
+    <t>桃木法杖</t>
+  </si>
+  <si>
+    <t>牛皮法典</t>
+  </si>
+  <si>
+    <t>木弓</t>
+  </si>
+  <si>
+    <t>皮箭袋</t>
   </si>
 </sst>
 </file>
@@ -99,9 +111,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
@@ -112,12 +124,12 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -130,6 +142,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -137,9 +156,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -151,38 +170,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,17 +189,25 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -214,32 +217,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -250,20 +263,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -288,11 +287,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -302,33 +337,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -340,43 +352,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,19 +520,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,115 +532,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,36 +555,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,11 +589,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,7 +628,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,213 +659,219 @@
   </borders>
   <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="61">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="差 2 2 2" xfId="1"/>
-    <cellStyle name="常规 2 2 5 2 2 3 2 4 2 2 4 2" xfId="2"/>
+    <cellStyle name="常规 2 2 5 2 2 3 2 4 2 2 4 2" xfId="1"/>
+    <cellStyle name="差 2 2 2" xfId="2"/>
     <cellStyle name="货币[0]" xfId="3" builtinId="7"/>
-    <cellStyle name="常规 2 2 4" xfId="4"/>
-    <cellStyle name="常规 5 4 2 3 2" xfId="5"/>
+    <cellStyle name="常规 5 4 2 3 2" xfId="4"/>
+    <cellStyle name="常规 2 2 4" xfId="5"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
     <cellStyle name="输入" xfId="7" builtinId="20"/>
     <cellStyle name="货币" xfId="8" builtinId="4"/>
@@ -1031,8 +1049,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:G13" totalsRowShown="0">
-  <autoFilter ref="A3:G13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:G32" totalsRowShown="0">
+  <autoFilter ref="A3:G32"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Key" dataDxfId="0"/>
     <tableColumn id="16" name="Key2" dataDxfId="1"/>
@@ -1333,58 +1351,58 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.2857142857143" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9.42857142857143" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.2857142857143" style="3" customWidth="1"/>
-    <col min="4" max="5" width="11.5714285714286" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="16.2857142857143" style="4"/>
+    <col min="1" max="1" width="9.42857142857143" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.2857142857143" style="4" customWidth="1"/>
+    <col min="4" max="5" width="11.5714285714286" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="16.2857142857143" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1411,30 +1429,30 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
+    <row r="4" s="2" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="7">
         <v>1</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="14.25" spans="2:7">
+    <row r="5" s="2" customFormat="1" spans="2:7">
       <c r="B5" s="7">
         <v>2</v>
       </c>
@@ -1450,31 +1468,31 @@
       <c r="F5" s="7">
         <v>1</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="14.25" spans="2:7">
-      <c r="B6" s="1">
+    <row r="6" s="2" customFormat="1" spans="2:7">
+      <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="7">
         <v>1</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="14.25" spans="2:7">
+    <row r="7" s="2" customFormat="1" spans="2:7">
       <c r="B7" s="7">
         <v>4</v>
       </c>
@@ -1490,11 +1508,11 @@
       <c r="F7" s="7">
         <v>1</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="14.25" spans="2:7">
+    <row r="8" s="2" customFormat="1" spans="2:7">
       <c r="B8" s="7">
         <v>5</v>
       </c>
@@ -1510,11 +1528,11 @@
       <c r="F8" s="7">
         <v>1</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="14.25" spans="2:7">
+    <row r="9" s="2" customFormat="1" spans="2:7">
       <c r="B9" s="7">
         <v>6</v>
       </c>
@@ -1530,11 +1548,11 @@
       <c r="F9" s="7">
         <v>1</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="14.25" spans="2:7">
+    <row r="10" s="2" customFormat="1" spans="2:7">
       <c r="B10" s="7">
         <v>7</v>
       </c>
@@ -1550,11 +1568,11 @@
       <c r="F10" s="7">
         <v>1</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="14.25" spans="2:7">
+    <row r="11" s="2" customFormat="1" spans="2:7">
       <c r="B11" s="7">
         <v>8</v>
       </c>
@@ -1570,12 +1588,12 @@
       <c r="F11" s="7">
         <v>1</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>2</v>
       </c>
       <c r="B12" s="7">
@@ -1593,12 +1611,12 @@
       <c r="F12" s="7">
         <v>1</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="1"/>
+      <c r="A13" s="2"/>
       <c r="B13" s="7">
         <v>10</v>
       </c>
@@ -1614,43 +1632,346 @@
       <c r="F13" s="7">
         <v>1</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="1"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="1"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="7">
+        <v>11</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2001</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7">
+        <v>300</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="1"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="1"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="7">
+        <v>12</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2002</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7">
+        <v>200</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="1"/>
+      <c r="B16" s="8">
+        <v>13</v>
+      </c>
+      <c r="C16" s="8">
+        <v>3001</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>300</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="17" ht="18" customHeight="1" spans="2:7">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="1"/>
+      <c r="B17" s="8">
+        <v>14</v>
+      </c>
+      <c r="C17" s="8">
+        <v>3002</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>200</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="9">
+        <v>15</v>
+      </c>
+      <c r="C18" s="10">
+        <v>1003</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1</v>
+      </c>
+      <c r="E18" s="10">
+        <v>400</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="9">
+        <v>16</v>
+      </c>
+      <c r="C19" s="10">
+        <v>1004</v>
+      </c>
+      <c r="D19" s="10">
+        <v>1</v>
+      </c>
+      <c r="E19" s="10">
+        <v>500</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="9">
+        <v>17</v>
+      </c>
+      <c r="C20" s="10">
+        <v>1005</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1</v>
+      </c>
+      <c r="E20" s="10">
+        <v>600</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="9">
+        <v>18</v>
+      </c>
+      <c r="C21" s="10">
+        <v>1006</v>
+      </c>
+      <c r="D21" s="10">
+        <v>1</v>
+      </c>
+      <c r="E21" s="10">
+        <v>700</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="9">
+        <v>19</v>
+      </c>
+      <c r="C22" s="10">
+        <v>1007</v>
+      </c>
+      <c r="D22" s="10">
+        <v>1</v>
+      </c>
+      <c r="E22" s="10">
+        <v>800</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="9">
+        <v>20</v>
+      </c>
+      <c r="C23" s="10">
+        <v>2003</v>
+      </c>
+      <c r="D23" s="10">
+        <v>1</v>
+      </c>
+      <c r="E23" s="10">
+        <v>400</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="9">
+        <v>21</v>
+      </c>
+      <c r="C24" s="10">
+        <v>2004</v>
+      </c>
+      <c r="D24" s="10">
+        <v>1</v>
+      </c>
+      <c r="E24" s="10">
+        <v>500</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="9">
+        <v>22</v>
+      </c>
+      <c r="C25" s="10">
+        <v>2005</v>
+      </c>
+      <c r="D25" s="10">
+        <v>1</v>
+      </c>
+      <c r="E25" s="10">
+        <v>600</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="9">
+        <v>23</v>
+      </c>
+      <c r="C26" s="10">
+        <v>2006</v>
+      </c>
+      <c r="D26" s="10">
+        <v>1</v>
+      </c>
+      <c r="E26" s="10">
+        <v>700</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="9">
+        <v>24</v>
+      </c>
+      <c r="C27" s="10">
+        <v>2007</v>
+      </c>
+      <c r="D27" s="10">
+        <v>1</v>
+      </c>
+      <c r="E27" s="10">
+        <v>800</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="9">
+        <v>25</v>
+      </c>
+      <c r="C28" s="10">
+        <v>3003</v>
+      </c>
+      <c r="D28" s="10">
+        <v>1</v>
+      </c>
+      <c r="E28" s="10">
+        <v>400</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="9">
+        <v>26</v>
+      </c>
+      <c r="C29" s="10">
+        <v>3004</v>
+      </c>
+      <c r="D29" s="10">
+        <v>1</v>
+      </c>
+      <c r="E29" s="10">
+        <v>500</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="9">
+        <v>27</v>
+      </c>
+      <c r="C30" s="10">
+        <v>3005</v>
+      </c>
+      <c r="D30" s="10">
+        <v>1</v>
+      </c>
+      <c r="E30" s="10">
+        <v>600</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="9">
+        <v>28</v>
+      </c>
+      <c r="C31" s="10">
+        <v>3006</v>
+      </c>
+      <c r="D31" s="10">
+        <v>1</v>
+      </c>
+      <c r="E31" s="10">
+        <v>700</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="9">
+        <v>29</v>
+      </c>
+      <c r="C32" s="10">
+        <v>3007</v>
+      </c>
+      <c r="D32" s="10">
+        <v>1</v>
+      </c>
+      <c r="E32" s="10">
+        <v>800</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Src/Data/Tables/ShopItemDefine.xlsx
+++ b/Src/Data/Tables/ShopItemDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" updateLinks="always"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="599"/>
+    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItems" sheetId="1" r:id="rId1"/>
@@ -111,10 +111,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -142,44 +142,65 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,65 +212,117 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,84 +336,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -352,19 +352,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,7 +508,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,151 +526,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,51 +555,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,6 +588,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -648,6 +618,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -656,185 +641,200 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -845,7 +845,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -867,11 +872,11 @@
   </cellXfs>
   <cellStyles count="61">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2 2 5 2 2 3 2 4 2 2 4 2" xfId="1"/>
-    <cellStyle name="差 2 2 2" xfId="2"/>
+    <cellStyle name="差 2 2 2" xfId="1"/>
+    <cellStyle name="常规 2 2 5 2 2 3 2 4 2 2 4 2" xfId="2"/>
     <cellStyle name="货币[0]" xfId="3" builtinId="7"/>
-    <cellStyle name="常规 5 4 2 3 2" xfId="4"/>
-    <cellStyle name="常规 2 2 4" xfId="5"/>
+    <cellStyle name="常规 2 2 4" xfId="4"/>
+    <cellStyle name="常规 5 4 2 3 2" xfId="5"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
     <cellStyle name="输入" xfId="7" builtinId="20"/>
     <cellStyle name="货币" xfId="8" builtinId="4"/>
@@ -1049,8 +1054,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:G32" totalsRowShown="0">
-  <autoFilter ref="A3:G32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:G35" totalsRowShown="0">
+  <autoFilter ref="A3:G35"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Key" dataDxfId="0"/>
     <tableColumn id="16" name="Key2" dataDxfId="1"/>
@@ -1351,17 +1356,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.2857142857143" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9.42857142857143" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.2857142857143" style="4" customWidth="1"/>
-    <col min="4" max="5" width="11.5714285714286" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.2857142857143" style="4"/>
+    <col min="3" max="3" width="12.2857142857143" style="5" customWidth="1"/>
+    <col min="4" max="5" width="11.5714285714286" style="5" customWidth="1"/>
     <col min="6" max="16384" width="16.2857142857143" style="1"/>
   </cols>
   <sheetData>
@@ -1407,25 +1413,25 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1445,34 +1451,34 @@
       <c r="E4" s="2">
         <v>10</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="8">
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="2:7">
-      <c r="B5" s="7">
+    <row r="5" s="2" customFormat="1" ht="14.25" spans="2:7">
+      <c r="B5" s="8">
         <v>2</v>
       </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
         <v>10</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="8">
         <v>100</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="8">
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="2:7">
+    <row r="6" s="2" customFormat="1" ht="14.25" spans="2:7">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -1485,107 +1491,107 @@
       <c r="E6" s="2">
         <v>10</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="8">
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="2:7">
-      <c r="B7" s="7">
+    <row r="7" s="2" customFormat="1" ht="14.25" spans="2:7">
+      <c r="B7" s="8">
         <v>4</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
         <v>2</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="8">
         <v>10</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="8">
         <v>100</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="8">
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="2:7">
-      <c r="B8" s="7">
+    <row r="8" s="2" customFormat="1" ht="14.25" spans="2:7">
+      <c r="B8" s="8">
         <v>5</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="8">
         <v>3</v>
       </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
         <v>20</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="8">
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="2:7">
-      <c r="B9" s="7">
+    <row r="9" s="2" customFormat="1" ht="14.25" spans="2:7">
+      <c r="B9" s="8">
         <v>6</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="8">
         <v>3</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="8">
         <v>10</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="8">
         <v>200</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="8">
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="2:7">
-      <c r="B10" s="7">
+    <row r="10" s="2" customFormat="1" ht="14.25" spans="2:7">
+      <c r="B10" s="8">
         <v>7</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="8">
         <v>4</v>
       </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
         <v>20</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="8">
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="2:7">
-      <c r="B11" s="7">
+    <row r="11" s="2" customFormat="1" ht="14.25" spans="2:7">
+      <c r="B11" s="8">
         <v>8</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="8">
         <v>4</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="8">
         <v>10</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="8">
         <v>200</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="8">
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -1596,19 +1602,19 @@
       <c r="A12" s="2">
         <v>2</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="8">
         <v>9</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="8">
         <v>9</v>
       </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
         <v>300</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="8">
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -1617,19 +1623,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2"/>
-      <c r="B13" s="7">
+      <c r="B13" s="8">
         <v>10</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="8">
         <v>10</v>
       </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7">
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
         <v>200</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="8">
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -1638,19 +1644,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2"/>
-      <c r="B14" s="7">
+      <c r="B14" s="8">
         <v>11</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="8">
         <v>2001</v>
       </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
         <v>300</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="8">
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -1659,19 +1665,19 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2"/>
-      <c r="B15" s="7">
+      <c r="B15" s="8">
         <v>12</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="8">
         <v>2002</v>
       </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7">
+      <c r="D15" s="8">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
         <v>200</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="8">
         <v>1</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -1679,19 +1685,19 @@
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="8">
+      <c r="B16" s="9">
         <v>13</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="9">
         <v>3001</v>
       </c>
-      <c r="D16" s="8">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
+      <c r="D16" s="9">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9">
         <v>300</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="8">
         <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -1699,19 +1705,19 @@
       </c>
     </row>
     <row r="17" ht="18" customHeight="1" spans="2:7">
-      <c r="B17" s="8">
+      <c r="B17" s="9">
         <v>14</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="9">
         <v>3002</v>
       </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
+      <c r="D17" s="8">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9">
         <v>200</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="8">
         <v>1</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -1719,16 +1725,16 @@
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="9">
+      <c r="B18" s="10">
         <v>15</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="11">
         <v>1003</v>
       </c>
-      <c r="D18" s="10">
-        <v>1</v>
-      </c>
-      <c r="E18" s="10">
+      <c r="D18" s="11">
+        <v>1</v>
+      </c>
+      <c r="E18" s="11">
         <v>400</v>
       </c>
       <c r="F18" s="1">
@@ -1736,16 +1742,16 @@
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="9">
+      <c r="B19" s="10">
         <v>16</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="11">
         <v>1004</v>
       </c>
-      <c r="D19" s="10">
-        <v>1</v>
-      </c>
-      <c r="E19" s="10">
+      <c r="D19" s="11">
+        <v>1</v>
+      </c>
+      <c r="E19" s="11">
         <v>500</v>
       </c>
       <c r="F19" s="1">
@@ -1753,16 +1759,16 @@
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="9">
+      <c r="B20" s="10">
         <v>17</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="11">
         <v>1005</v>
       </c>
-      <c r="D20" s="10">
-        <v>1</v>
-      </c>
-      <c r="E20" s="10">
+      <c r="D20" s="11">
+        <v>1</v>
+      </c>
+      <c r="E20" s="11">
         <v>600</v>
       </c>
       <c r="F20" s="1">
@@ -1770,16 +1776,16 @@
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="9">
+      <c r="B21" s="10">
         <v>18</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="11">
         <v>1006</v>
       </c>
-      <c r="D21" s="10">
-        <v>1</v>
-      </c>
-      <c r="E21" s="10">
+      <c r="D21" s="11">
+        <v>1</v>
+      </c>
+      <c r="E21" s="11">
         <v>700</v>
       </c>
       <c r="F21" s="1">
@@ -1787,16 +1793,16 @@
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="9">
+      <c r="B22" s="10">
         <v>19</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="11">
         <v>1007</v>
       </c>
-      <c r="D22" s="10">
-        <v>1</v>
-      </c>
-      <c r="E22" s="10">
+      <c r="D22" s="11">
+        <v>1</v>
+      </c>
+      <c r="E22" s="11">
         <v>800</v>
       </c>
       <c r="F22" s="1">
@@ -1804,16 +1810,16 @@
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="9">
+      <c r="B23" s="10">
         <v>20</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="11">
         <v>2003</v>
       </c>
-      <c r="D23" s="10">
-        <v>1</v>
-      </c>
-      <c r="E23" s="10">
+      <c r="D23" s="11">
+        <v>1</v>
+      </c>
+      <c r="E23" s="11">
         <v>400</v>
       </c>
       <c r="F23" s="1">
@@ -1821,16 +1827,16 @@
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="9">
+      <c r="B24" s="10">
         <v>21</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="11">
         <v>2004</v>
       </c>
-      <c r="D24" s="10">
-        <v>1</v>
-      </c>
-      <c r="E24" s="10">
+      <c r="D24" s="11">
+        <v>1</v>
+      </c>
+      <c r="E24" s="11">
         <v>500</v>
       </c>
       <c r="F24" s="1">
@@ -1838,16 +1844,16 @@
       </c>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="9">
+      <c r="B25" s="10">
         <v>22</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="11">
         <v>2005</v>
       </c>
-      <c r="D25" s="10">
-        <v>1</v>
-      </c>
-      <c r="E25" s="10">
+      <c r="D25" s="11">
+        <v>1</v>
+      </c>
+      <c r="E25" s="11">
         <v>600</v>
       </c>
       <c r="F25" s="1">
@@ -1855,16 +1861,16 @@
       </c>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="9">
+      <c r="B26" s="10">
         <v>23</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="11">
         <v>2006</v>
       </c>
-      <c r="D26" s="10">
-        <v>1</v>
-      </c>
-      <c r="E26" s="10">
+      <c r="D26" s="11">
+        <v>1</v>
+      </c>
+      <c r="E26" s="11">
         <v>700</v>
       </c>
       <c r="F26" s="1">
@@ -1872,16 +1878,16 @@
       </c>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="9">
+      <c r="B27" s="10">
         <v>24</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="11">
         <v>2007</v>
       </c>
-      <c r="D27" s="10">
-        <v>1</v>
-      </c>
-      <c r="E27" s="10">
+      <c r="D27" s="11">
+        <v>1</v>
+      </c>
+      <c r="E27" s="11">
         <v>800</v>
       </c>
       <c r="F27" s="1">
@@ -1889,16 +1895,16 @@
       </c>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="9">
+      <c r="B28" s="10">
         <v>25</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="11">
         <v>3003</v>
       </c>
-      <c r="D28" s="10">
-        <v>1</v>
-      </c>
-      <c r="E28" s="10">
+      <c r="D28" s="11">
+        <v>1</v>
+      </c>
+      <c r="E28" s="11">
         <v>400</v>
       </c>
       <c r="F28" s="1">
@@ -1906,16 +1912,16 @@
       </c>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="9">
+      <c r="B29" s="10">
         <v>26</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="11">
         <v>3004</v>
       </c>
-      <c r="D29" s="10">
-        <v>1</v>
-      </c>
-      <c r="E29" s="10">
+      <c r="D29" s="11">
+        <v>1</v>
+      </c>
+      <c r="E29" s="11">
         <v>500</v>
       </c>
       <c r="F29" s="1">
@@ -1923,16 +1929,16 @@
       </c>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="9">
+      <c r="B30" s="10">
         <v>27</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="11">
         <v>3005</v>
       </c>
-      <c r="D30" s="10">
-        <v>1</v>
-      </c>
-      <c r="E30" s="10">
+      <c r="D30" s="11">
+        <v>1</v>
+      </c>
+      <c r="E30" s="11">
         <v>600</v>
       </c>
       <c r="F30" s="1">
@@ -1940,16 +1946,16 @@
       </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="9">
+      <c r="B31" s="10">
         <v>28</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="11">
         <v>3006</v>
       </c>
-      <c r="D31" s="10">
-        <v>1</v>
-      </c>
-      <c r="E31" s="10">
+      <c r="D31" s="11">
+        <v>1</v>
+      </c>
+      <c r="E31" s="11">
         <v>700</v>
       </c>
       <c r="F31" s="1">
@@ -1957,19 +1963,73 @@
       </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="9">
+      <c r="B32" s="10">
         <v>29</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="11">
         <v>3007</v>
       </c>
-      <c r="D32" s="10">
-        <v>1</v>
-      </c>
-      <c r="E32" s="10">
+      <c r="D32" s="11">
+        <v>1</v>
+      </c>
+      <c r="E32" s="11">
         <v>800</v>
       </c>
       <c r="F32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="3">
+        <v>3</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1</v>
+      </c>
+      <c r="C33" s="5">
+        <v>8001</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="4">
+        <v>2</v>
+      </c>
+      <c r="C34" s="5">
+        <v>8002</v>
+      </c>
+      <c r="D34" s="5">
+        <v>1</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="4">
+        <v>3</v>
+      </c>
+      <c r="C35" s="5">
+        <v>8003</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F35" s="1">
         <v>1</v>
       </c>
     </row>
